--- a/biology/Botanique/Rosa_holodonta/Rosa_holodonta.xlsx
+++ b/biology/Botanique/Rosa_holodonta/Rosa_holodonta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosa holodonta  est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier classé dans la section des Cinnamomeae, originaire de Chine occidentale, importé en 1894 en même temps que Rosa moyesii.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce tétraploïque est parfois tenue pour une forme, une variété ou un cultivar de Rosa moyesii à fleurs roses et fruits écarlates. Certains auteurs la considèrent même comme synonyme à Rosa moyesii
 C'est un arbuste pouvant atteindre deux mètres de haut, aux feuilles de 7 à 13 folioles de 5 cm de long et 2,5 de large, aux fleurs simples roses, solitaires ou en petits groupes de deux ou trois, fleurissant en été (non remontant).
-Les fruits sont des cynorrhodons de couleur rouge à maturité, à la forme particulière «  en bouteille », longs de 6 cm, lisses ou poilus[1].
+Les fruits sont des cynorrhodons de couleur rouge à maturité, à la forme particulière «  en bouteille », longs de 6 cm, lisses ou poilus.
 </t>
         </is>
       </c>
